--- a/Backend/flashMobGre/src/main/resources/Words.xlsx
+++ b/Backend/flashMobGre/src/main/resources/Words.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E489D3-613D-47D6-9A30-AB1D9975F4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="2182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="2713">
   <si>
     <t>Name</t>
   </si>
@@ -5838,9 +5839,6 @@
 2. गमंती</t>
   </si>
   <si>
-    <t>Covivial</t>
-  </si>
-  <si>
     <t>1. Friendly,lively and enjoyable</t>
   </si>
   <si>
@@ -7104,12 +7102,1798 @@
   </si>
   <si>
     <t>Meagre, Meagreness</t>
+  </si>
+  <si>
+    <t>Destitution, Destitute</t>
+  </si>
+  <si>
+    <t>1. Without money, food, a home or a possession</t>
+  </si>
+  <si>
+    <t>1. The floods left thousands of people destitute
+2. The family faced eviction and destitution</t>
+  </si>
+  <si>
+    <t>1. संपू्‌र्ण दारिद्रय</t>
+  </si>
+  <si>
+    <t>Impoverish, Impoverishment</t>
+  </si>
+  <si>
+    <t>1. To make someone poor, condition of becoming poor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The new law is likely to further impoverish single parents
+2. The drought reduced many farmers to impoverishment.
+3. Progress has meant continued impoverishment and a growing contrast between the wealth of the few and the poverty of the many.
+</t>
+  </si>
+  <si>
+    <t>1. दुर्बलता
+2. निर्धनता</t>
+  </si>
+  <si>
+    <t>Insolvent, insolvency</t>
+  </si>
+  <si>
+    <t>1. Unable to pay debts</t>
+  </si>
+  <si>
+    <t>1. The company became insolvent
+2. The country will face insolvency unless the government adopts cost-cutting measures</t>
+  </si>
+  <si>
+    <t>1. दिवाळखोरी</t>
+  </si>
+  <si>
+    <t>Penury</t>
+  </si>
+  <si>
+    <t>1. The state of being extremely poor</t>
+  </si>
+  <si>
+    <t>1. He couldn't face another year of penury</t>
+  </si>
+  <si>
+    <t>1. आत्यंतिक दारिद्रय</t>
+  </si>
+  <si>
+    <t>Privation</t>
+  </si>
+  <si>
+    <t>1. Lack of basic things</t>
+  </si>
+  <si>
+    <t>1. Economic privation is pushing the poor towards crime.
+2. Several villages suffered serious privations during their long isolation during the war.</t>
+  </si>
+  <si>
+    <t>1. हलाखी</t>
+  </si>
+  <si>
+    <t>Indigent, Indigence</t>
+  </si>
+  <si>
+    <t>1. Very poor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. We are a non-profit agency that provides legal services to indigent clients
+2. There is a reason you see someone riding a second-rate bike, and it's not indigence.
+3. He claimed indigence and is being </t>
+  </si>
+  <si>
+    <t>1. दारिद्र्य</t>
+  </si>
+  <si>
+    <t>Intelligible</t>
+  </si>
+  <si>
+    <t>1. Able to understand</t>
+  </si>
+  <si>
+    <t>1. समजण्यायोग्य</t>
+  </si>
+  <si>
+    <t>1. She was so upset when she spoke that she was hardly intelligible</t>
+  </si>
+  <si>
+    <t>Perspicuous</t>
+  </si>
+  <si>
+    <t>1. Clear and easy to understand</t>
+  </si>
+  <si>
+    <t>1. This theory provides a simpler and more perspicuous explanation than its rival</t>
+  </si>
+  <si>
+    <t>1. स्पष्ट</t>
+  </si>
+  <si>
+    <t>Eloquent</t>
+  </si>
+  <si>
+    <t>1. To give clear and strong message; to express well</t>
+  </si>
+  <si>
+    <t>1. She made an eloquent appeal for action.
+2. The pictures were an eloquent reminder of the power of the volcano.</t>
+  </si>
+  <si>
+    <t>1. प्रभावी</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>1. Clearly expressed and easy to understand</t>
+  </si>
+  <si>
+    <t>1. She gave a clear and lucid account of her plans for the company's future.
+2. The drugs she's taking make her drowsy and confused, but there are times when she's quite lucid</t>
+  </si>
+  <si>
+    <t>Hyperbole</t>
+  </si>
+  <si>
+    <t>1. Exaggerated statements or claims</t>
+  </si>
+  <si>
+    <t>1. अतिशयोक्ती</t>
+  </si>
+  <si>
+    <t>1. Although he’s not given to hyperbole, Ron says we are light-years ahead of our time</t>
+  </si>
+  <si>
+    <t>Entrench</t>
+  </si>
+  <si>
+    <t>1. Firmly established so that it cannot be changed</t>
+  </si>
+  <si>
+    <t>1. The government's main task was to prevent inflation from entrenching itself</t>
+  </si>
+  <si>
+    <t>Ingrain</t>
+  </si>
+  <si>
+    <t>1. Firmly fixed, difficult to change</t>
+  </si>
+  <si>
+    <t>1. We want to ingrain good financial habits in people</t>
+  </si>
+  <si>
+    <t>1. दृढ़</t>
+  </si>
+  <si>
+    <t>Inculcate</t>
+  </si>
+  <si>
+    <t>1. मनावर ठसवणे</t>
+  </si>
+  <si>
+    <t>1. I tried to inculcate in my pupils an attitude of enquiry
+2. Our coach has worked hard to inculcate a team spirit in/into the players</t>
+  </si>
+  <si>
+    <t>Instil</t>
+  </si>
+  <si>
+    <t>1. Instil(an idea,habit or attitude) by persistent instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Gradually but firmly establish </t>
+  </si>
+  <si>
+    <t>1. It is part of a teacher's job to instil confidence in/into his or her students</t>
+  </si>
+  <si>
+    <t>1. भिनवणे</t>
+  </si>
+  <si>
+    <t>Foster</t>
+  </si>
+  <si>
+    <t>1. Encourage the development
+2. To bring up a child that is not one's own</t>
+  </si>
+  <si>
+    <t>1. a foster care/home/child/mother
+2. The neglected child was removed from her home and placed with a foster family.
+3. I try to foster an appreciation for classical music in my students
+4. The teacher's task is to foster learning</t>
+  </si>
+  <si>
+    <t>1. वाढवणे
+2. संगोपन करणे</t>
+  </si>
+  <si>
+    <t>Indelible</t>
+  </si>
+  <si>
+    <t>1. Marks, memories, etc that cannot be removed</t>
+  </si>
+  <si>
+    <t>1. वज्रलेप
+2. शाईचा डाग, कलंक इ.पुसून टाकता येणार नाही असा</t>
+  </si>
+  <si>
+    <t>1. indelible ink
+2. The blood had left an indelible mark on her shirt.
+3. I have an indelible memory of that meeting with Anastasia</t>
+  </si>
+  <si>
+    <t>Abiding</t>
+  </si>
+  <si>
+    <t>1. Lasting for long time</t>
+  </si>
+  <si>
+    <t>1. Muir had an abiding interest in dogs.
+2. He had an abiding respect for her</t>
+  </si>
+  <si>
+    <t>1. कायमचा</t>
+  </si>
+  <si>
+    <t>Perpetual</t>
+  </si>
+  <si>
+    <t>1. Never ending or changing</t>
+  </si>
+  <si>
+    <t>1. They lived in perpetual fear of being discovered.
+2. She resented his perpetual complaining about her cooking</t>
+  </si>
+  <si>
+    <t>1. शाश्वत
+2. चिरंतन</t>
+  </si>
+  <si>
+    <t>1. Showing no interest or energy</t>
+  </si>
+  <si>
+    <t>1. निरुत्साही
+2. उदासीन</t>
+  </si>
+  <si>
+    <t>Apathetic, Apathy</t>
+  </si>
+  <si>
+    <t>1. Young people today are so apathetic about politics.
+2. Don't be so apathetic - how are you going to get a job if you don't even start looking?
+3. There is a growing sense of apathy among teens and a feeling that there are no opportunities, he said</t>
+  </si>
+  <si>
+    <t>Lackadaisical</t>
+  </si>
+  <si>
+    <t>1. Showing little enthusiasm or efforts</t>
+  </si>
+  <si>
+    <t>1. दमलेला
+2. सुस्त</t>
+  </si>
+  <si>
+    <t>1. The food was nice enough but the service was somewhat lackadaisical
+2. Taking a lackadaisical approach can jeopardize the success of a project</t>
+  </si>
+  <si>
+    <t>Torpid</t>
+  </si>
+  <si>
+    <t>1. Not active, lethargic</t>
+  </si>
+  <si>
+    <t>1. चैतन्यहीन
+2. कंटाळवाणा</t>
+  </si>
+  <si>
+    <t>1. If you have a sudden loss of cabin pressure at 20,000 feet, passengers will become torpid and then lose consciousness
+2. He was lazing torpidly in the beige armchair while he watched TV</t>
+  </si>
+  <si>
+    <t>Languor, Languorous</t>
+  </si>
+  <si>
+    <t>1. Mental or physical tiredness, lack of activity</t>
+  </si>
+  <si>
+    <t>1. It could be seen in schoolchildrens languor and pallor
+2. Summer has a slow, languorous feel to it here</t>
+  </si>
+  <si>
+    <t>1. सुस्त
+2. मंद</t>
+  </si>
+  <si>
+    <t>Somnolent</t>
+  </si>
+  <si>
+    <t>1. Sleepy, drowsy</t>
+  </si>
+  <si>
+    <t>1. A somnolent summer's afternoon
+2. The somnolent villages further north</t>
+  </si>
+  <si>
+    <t>1. झोपाळू
+2. झोप आणणारा</t>
+  </si>
+  <si>
+    <t>Insular, Insularity</t>
+  </si>
+  <si>
+    <t>1. Only being interested in your own country or group and not being willing to accept different or foreign ideas</t>
+  </si>
+  <si>
+    <t>1. Their actions have led to accusations of insularity or arrogance.
+2. She dislikes the cosy insularity of the local jazz scene</t>
+  </si>
+  <si>
+    <t>1. अलिप्त</t>
+  </si>
+  <si>
+    <t>Intrepid</t>
+  </si>
+  <si>
+    <t>1. Extremely brave</t>
+  </si>
+  <si>
+    <t>1. A team of intrepid explorers</t>
+  </si>
+  <si>
+    <t>1.  शूर
+2. निर्भय</t>
+  </si>
+  <si>
+    <t>Venturous, venturesome</t>
+  </si>
+  <si>
+    <t>1. Willing to take risk</t>
+  </si>
+  <si>
+    <t>1. He has become more venturesome this season with dress designs that incorporate a variety of ethnic influences
+2. Five venturous young men</t>
+  </si>
+  <si>
+    <t>1. साहसी</t>
+  </si>
+  <si>
+    <t>Loathe</t>
+  </si>
+  <si>
+    <t>1. To dislike or hate someone or soemthing</t>
+  </si>
+  <si>
+    <t>1. From an early age the brothers have loathed each other.
+2. "Do you like fish?" "No, I loathe it."
+3. I loathe doing housework</t>
+  </si>
+  <si>
+    <t>1. तिरस्कार</t>
+  </si>
+  <si>
+    <t>Abominate, Abomination</t>
+  </si>
+  <si>
+    <t>1. To hate something very much</t>
+  </si>
+  <si>
+    <t>1. He abominates cruelty of all kinds
+2. The moment such cases enter public discourse, they are viewed as abominations</t>
+  </si>
+  <si>
+    <t>1. घृणा
+2. तिटकारा</t>
+  </si>
+  <si>
+    <t>Detest, Detestation</t>
+  </si>
+  <si>
+    <t>1. Intense dislike</t>
+  </si>
+  <si>
+    <t>1. I detest any kind of cruelty.
+2. I detest having to get up when it's dark outside.
+ 3. her detested older brother
+4. Wordsworth's detestation of aristocracy</t>
+  </si>
+  <si>
+    <t>1. अतिद्वेष
+2. तिरस्कार</t>
+  </si>
+  <si>
+    <t>Repugnance</t>
+  </si>
+  <si>
+    <t>1. Intense disgust</t>
+  </si>
+  <si>
+    <t>1. Our repugnance at the bleeding carcasses
+2. The thought of eating meat fills me with repugnance.
+3. Overcoming his physical repugnance, he reached out to touch the wound</t>
+  </si>
+  <si>
+    <t>1. तीव्र तिरस्कार
+2. किळस</t>
+  </si>
+  <si>
+    <t>Malign</t>
+  </si>
+  <si>
+    <t>1. Evil in nature</t>
+  </si>
+  <si>
+    <t>1. Foreign domination had a malign influence on local politics
+2. Don't you dare malign her in my presence</t>
+  </si>
+  <si>
+    <t>1. द्वेषयुक्त व्यक्ती
+2. निंदानालस्ती करणे</t>
+  </si>
+  <si>
+    <t>Neophyte</t>
+  </si>
+  <si>
+    <t>1. A person who is new to subject or activity</t>
+  </si>
+  <si>
+    <t>1. This computer course is for neophytes</t>
+  </si>
+  <si>
+    <t>1. नवशिक्या</t>
+  </si>
+  <si>
+    <t>Dilettant</t>
+  </si>
+  <si>
+    <t>1. A person with an amateur interest in a subject</t>
+  </si>
+  <si>
+    <t>1. He's a bit of a dilettante as far as wine is concerned</t>
+  </si>
+  <si>
+    <t>1. अभ्यास करणारा परंतु त्यांचे तितकेसे ज्ञान नसलेला</t>
+  </si>
+  <si>
+    <t>Prescient</t>
+  </si>
+  <si>
+    <t>1. Knowing or showing correctly what will happen in future</t>
+  </si>
+  <si>
+    <t>1. A prescient warning</t>
+  </si>
+  <si>
+    <t>1. भाविकालज्ञ
+2. भाविष्यज्ञानी</t>
+  </si>
+  <si>
+    <t>Clairvoyant</t>
+  </si>
+  <si>
+    <t>1. A person who have or claims to have ability to perceive events in the future</t>
+  </si>
+  <si>
+    <t>1. She has had a message from a clairvoyant that her son is alive and well</t>
+  </si>
+  <si>
+    <t>Pristine</t>
+  </si>
+  <si>
+    <t>1. New or almost new or in its original condition</t>
+  </si>
+  <si>
+    <t>1. pristine new offices
+2. Washing machine for sale - only two months old and in pristine condition</t>
+  </si>
+  <si>
+    <t>1. मूळचा
+2. जसा पूर्वी होता तसा शुद्ध न बिघडलेला</t>
+  </si>
+  <si>
+    <t>Immaculate</t>
+  </si>
+  <si>
+    <t>1. Perfectly clean or tidy</t>
+  </si>
+  <si>
+    <t>1. Dressed in an immaculate white suit
+2. An immaculate garden</t>
+  </si>
+  <si>
+    <t>1. स्वच्छ</t>
+  </si>
+  <si>
+    <t>Gleam, Gleaming</t>
+  </si>
+  <si>
+    <t>1. Bright and shiny for being cleaned</t>
+  </si>
+  <si>
+    <t>1. A gleaming kitchen
+2. Gleaming windows</t>
+  </si>
+  <si>
+    <t>1. चमकणारा</t>
+  </si>
+  <si>
+    <t>Unsullied</t>
+  </si>
+  <si>
+    <t>1. Not damaged or made dirty by anything</t>
+  </si>
+  <si>
+    <t>1. शुद्ध</t>
+  </si>
+  <si>
+    <t>1. His unsullied reputation</t>
+  </si>
+  <si>
+    <t>Impeccable</t>
+  </si>
+  <si>
+    <t>1. Perfect, with no problems or bad parts</t>
+  </si>
+  <si>
+    <t>1. Mmpeccable taste/manners/credentials
+2. His English is impeccable</t>
+  </si>
+  <si>
+    <t>1. दोषरहित</t>
+  </si>
+  <si>
+    <t>Reproach</t>
+  </si>
+  <si>
+    <t>1. To criticize someone</t>
+  </si>
+  <si>
+    <t>1. His mother reproached him for not eating all his dinner.
+2. You have nothing to reproach yourself for/with</t>
+  </si>
+  <si>
+    <t>1. खरडपट्टी काढणे
+2. निर्भर्त्सना करणे</t>
+  </si>
+  <si>
+    <t>Salubrious</t>
+  </si>
+  <si>
+    <t>1. Pleasant and healthy</t>
+  </si>
+  <si>
+    <t>1. He doesn't live in a very salubrious part of town
+2. Whether this salubrious effect of amrinone on cardiac output is due more to the former than the latter is yet unknown</t>
+  </si>
+  <si>
+    <t>1. आरोग्यवर्धक</t>
+  </si>
+  <si>
+    <t>Salutary</t>
+  </si>
+  <si>
+    <t>1. Producing good effects, beneficial</t>
+  </si>
+  <si>
+    <t>1. A salutary experience
+2. A salutary reminder of the dangers of mountain climbing
+3. The effects of such a decision would not be salutary</t>
+  </si>
+  <si>
+    <t>1. चांगला परिणाम घडवून आणणारा</t>
+  </si>
+  <si>
+    <t>Retribution</t>
+  </si>
+  <si>
+    <t>1. Deserved punishment</t>
+  </si>
+  <si>
+    <t>1. He was seeking retribution for the crime committed against him
+2. Employees asked not to be named, saying they feared retribution</t>
+  </si>
+  <si>
+    <t>1. योग्य व कडक शिक्षा</t>
+  </si>
+  <si>
+    <t>Sedulous</t>
+  </si>
+  <si>
+    <t>1. Showing dedication and diligence</t>
+  </si>
+  <si>
+    <t>1. He watched himself with the most sedulous care
+2. It was agreed that the few students sedulous enough to read the book deserved top marks for diligence</t>
+  </si>
+  <si>
+    <t>1. उद्योगी 
+2. मेहनती</t>
+  </si>
+  <si>
+    <t>Industrious</t>
+  </si>
+  <si>
+    <t>1. Diligent and hard working</t>
+  </si>
+  <si>
+    <t>1. An industrious worker
+2. She's extremely competent and industrious.</t>
+  </si>
+  <si>
+    <t>1. मेहनती</t>
+  </si>
+  <si>
+    <t>Conscientious</t>
+  </si>
+  <si>
+    <t>1. Putting lot of effort in your work</t>
+  </si>
+  <si>
+    <t>1. A conscientious student
+2. A conscientious man, he took his duties very seriously</t>
+  </si>
+  <si>
+    <t>1. प्रामाणिकपणे बजावलेले</t>
+  </si>
+  <si>
+    <t>Painstaking</t>
+  </si>
+  <si>
+    <t>1. It took months of painstaking research to write the book.
+2. He was described by his colleagues as a painstaking journalist.</t>
+  </si>
+  <si>
+    <t>1. Extremely careful and correct, invoving lot of efforts</t>
+  </si>
+  <si>
+    <t>1.  परिश्रमपूर्वक केलेला
+2. खूप परिश्रम घेणारा</t>
+  </si>
+  <si>
+    <t>Laborious</t>
+  </si>
+  <si>
+    <t>1. Needing a lot of time and effort</t>
+  </si>
+  <si>
+    <t>1. Years of laborious training
+2. A laborious task</t>
+  </si>
+  <si>
+    <t>1. कष्टकारक</t>
+  </si>
+  <si>
+    <t>Strenuous</t>
+  </si>
+  <si>
+    <t>1. Needing or using lot of efforts or energy</t>
+  </si>
+  <si>
+    <t>1. I think football is much more strenuous than baseball.
+2. He strenuously denies that he is guilty.</t>
+  </si>
+  <si>
+    <t>1. तीव्र 
+2. कठोर परिश्रम</t>
+  </si>
+  <si>
+    <t>Soporific</t>
+  </si>
+  <si>
+    <t>1. Causing or making a person want to sleep</t>
+  </si>
+  <si>
+    <t>1. The soporific effect of the heat
+2. The motion of the train had a somewhat soporific effect</t>
+  </si>
+  <si>
+    <t>1.  गुंगी
+2. झोप आणणार</t>
+  </si>
+  <si>
+    <t>Stern</t>
+  </si>
+  <si>
+    <t>1. Strict and severe
+2. The back part of ship</t>
+  </si>
+  <si>
+    <t>1. He directed the agency with the sternness of a military officer.
+2. Her concern began to turn to sternness
+3. A stern look/warning/voice
+4. She is her own sternest critic.</t>
+  </si>
+  <si>
+    <t>1. शिस्तीचा
+2. कडक</t>
+  </si>
+  <si>
+    <t>Draconian</t>
+  </si>
+  <si>
+    <t>1. Extremely severe</t>
+  </si>
+  <si>
+    <t>1. The governor proposed draconian cuts in state aid to education
+2. He criticized the draconian measures taken by the police in controlling the demonstrators.</t>
+  </si>
+  <si>
+    <t>1. कठोर</t>
+  </si>
+  <si>
+    <t>Stringent</t>
+  </si>
+  <si>
+    <t>1. Strict, and having very severe effect</t>
+  </si>
+  <si>
+    <t>1. The most stringent laws in the world are useless unless there is the will to enforce them.
+2. We need to introduce more stringent security measures such as identity cards</t>
+  </si>
+  <si>
+    <t>1.  कडक पाळलाच पाहिजे असा
+2. पळवाट नसलेला</t>
+  </si>
+  <si>
+    <t>Tendentious</t>
+  </si>
+  <si>
+    <t>1. To support controversial opinion</t>
+  </si>
+  <si>
+    <t>1. Parts of the media have tendentiously exaggerated the significance of the incident.</t>
+  </si>
+  <si>
+    <t>1. भाषण, लेखन, इ. कोणत्यातरी हेतूने केलेला पक्षपाती स्वरुपाचा</t>
+  </si>
+  <si>
+    <t>Accentuate</t>
+  </si>
+  <si>
+    <t>1. To make more noticable or prominent</t>
+  </si>
+  <si>
+    <t>1. The new policy only serves to accentuate the inadequacy of help for the homeless
+2. While the virtues of country life were still stressed, the differences between town and country became less accentuated</t>
+  </si>
+  <si>
+    <t>1. उठाव देणे</t>
+  </si>
+  <si>
+    <t>Conjecture, Conjectural</t>
+  </si>
+  <si>
+    <t>1. Based on how something seems and not on proof</t>
+  </si>
+  <si>
+    <t>1. He uses the words "guess" and "suppose" frequently, showing that the whole argument is purely conjectural.
+2. An expert's opinion must not be based upon speculative or conjectural data</t>
+  </si>
+  <si>
+    <t>1.  तर्कानुमेय
+2. तर्कावर आधारलेला</t>
+  </si>
+  <si>
+    <t>Putative</t>
+  </si>
+  <si>
+    <t>1. Generally considered or reputated to be</t>
+  </si>
+  <si>
+    <t>1. The putative leader of the terrorist cell was arrested yesterday
+2. However, no biophysical studies of this putative interaction are available yet</t>
+  </si>
+  <si>
+    <t>1. कल्पित</t>
+  </si>
+  <si>
+    <t>Convivial</t>
+  </si>
+  <si>
+    <t>Decadent</t>
+  </si>
+  <si>
+    <t>1. A decadent society
+2. The decadent court surrounding the king
+3. A decaying, decadent Britain</t>
+  </si>
+  <si>
+    <t>1. Having low or declining morals or standards</t>
+  </si>
+  <si>
+    <t>1. उतरती कळा लागलेला
+2. अवनती होत जाणारा</t>
+  </si>
+  <si>
+    <t>Egregious</t>
+  </si>
+  <si>
+    <t>1. Extremely bad</t>
+  </si>
+  <si>
+    <t>1. It was an egregious error for statesman to show such ignorance
+2. An egregious example of misrepresentation</t>
+  </si>
+  <si>
+    <t>1. अतिशय गंभीर</t>
+  </si>
+  <si>
+    <t>Appalling</t>
+  </si>
+  <si>
+    <t>1. Shocking and very bad</t>
+  </si>
+  <si>
+    <t>1. Apalling weather
+2. Prisoners were kept in most appalling conditions</t>
+  </si>
+  <si>
+    <t>1. धक्कादायक</t>
+  </si>
+  <si>
+    <t>Hideous</t>
+  </si>
+  <si>
+    <t>1. Extremely unpleasant</t>
+  </si>
+  <si>
+    <t>1. They've just built some hideous new apartment blocks on the seafront.
+2. She wears the most hideous colour combinations you could ever imagine</t>
+  </si>
+  <si>
+    <t>1. फारच विद्रूप</t>
+  </si>
+  <si>
+    <t>Forestall</t>
+  </si>
+  <si>
+    <t>1. To prevent something from happening</t>
+  </si>
+  <si>
+    <t>1. The company executives forestall criticism by inviting union leaders to meet
+2. They will present their resignation to forestall a vote for no confidence</t>
+  </si>
+  <si>
+    <t>1. अगोदरच अटकाव करणे</t>
+  </si>
+  <si>
+    <t>Galvanize</t>
+  </si>
+  <si>
+    <t>1. Shock or excite (someone) into taking action</t>
+  </si>
+  <si>
+    <t>1. Urgency of his voice galvanized them into action
+2. Why not use the media to galvanize the community into action?</t>
+  </si>
+  <si>
+    <t>1. चेतना आणणे</t>
+  </si>
+  <si>
+    <t>1. Done at random without careful judgement</t>
+  </si>
+  <si>
+    <t>1. The indiscriminate use of antibiotics can cause problems
+2. An indiscriminate terrorist attack on civilians
+3. The indiscriminate use of fertilizers can cause long-term problems</t>
+  </si>
+  <si>
+    <t>1. तारतम्यहीन
+2. बेछूट</t>
+  </si>
+  <si>
+    <t>Indiscriminate, Undiscriminating</t>
+  </si>
+  <si>
+    <t>Flagrant</t>
+  </si>
+  <si>
+    <t>1. Shocking because of being so bad and obvious</t>
+  </si>
+  <si>
+    <t>1. He flagrantly broke the law
+2. A flagrant violation of the rules</t>
+  </si>
+  <si>
+    <t>1. उघडउघड दुष्ट किंवा निंदय</t>
+  </si>
+  <si>
+    <t>Nettle, nettlesome</t>
+  </si>
+  <si>
+    <t>1. To cause annoyance</t>
+  </si>
+  <si>
+    <t>1. Nettlesome regional disputes
+2. She looked up at me sharply, clearly nettled by the interruption</t>
+  </si>
+  <si>
+    <t>1. चिडवणे</t>
+  </si>
+  <si>
+    <t>Exasperate</t>
+  </si>
+  <si>
+    <t>1. Irritate, frustrate and annoyed</t>
+  </si>
+  <si>
+    <t>1. This futile process exasperates prison officers
+2. His assistant’s carelessness is exasperating him</t>
+  </si>
+  <si>
+    <t>1. संतापवणे
+2. राग भडकवणे</t>
+  </si>
+  <si>
+    <t>Infuriate</t>
+  </si>
+  <si>
+    <t>1. To make someone extremely angry</t>
+  </si>
+  <si>
+    <t>1. His sexist attitude infuriates me.</t>
+  </si>
+  <si>
+    <t>1. राग भडकवणे</t>
+  </si>
+  <si>
+    <t>Incense</t>
+  </si>
+  <si>
+    <t>1. The editor said a lot of readers would be incensed by my article on class.
+2. I was so incensed by what he was saying I had to walk out</t>
+  </si>
+  <si>
+    <t>1. To cause someone extremely angry
+2. A gum, spice, or other substance that is burned for the sweet smell it produces</t>
+  </si>
+  <si>
+    <t>1. संतप्त करणे
+2. धूप</t>
+  </si>
+  <si>
+    <t>Rescind</t>
+  </si>
+  <si>
+    <t>1. To make law, decision ,etc no longer have any effect</t>
+  </si>
+  <si>
+    <t>1. The vote rescinds zoning decisions made earlier in the decade</t>
+  </si>
+  <si>
+    <t>Countermand</t>
+  </si>
+  <si>
+    <t>1. To revoke, cancel the order</t>
+  </si>
+  <si>
+    <t>1. Oral approval will form part of the agreement unless it is countermanded by the client within two working days.</t>
+  </si>
+  <si>
+    <t>1. रद्द करणे</t>
+  </si>
+  <si>
+    <t>1. His second marriage was annulled because he never divorced his first wife
+2. The contract was finally annulled
+3. You will need a court hearing to get an annulment</t>
+  </si>
+  <si>
+    <t>1. Declare officially that something no longer exist</t>
+  </si>
+  <si>
+    <t>Annul, Annulment</t>
+  </si>
+  <si>
+    <t>1. रद्दबातल करणे</t>
+  </si>
+  <si>
+    <t>Obviate</t>
+  </si>
+  <si>
+    <t>1. To remove difficulty</t>
+  </si>
+  <si>
+    <t>1. The presence of roller blinds obviated the need for curtains
+2. A peaceful solution would obviate the need to send a UN military force</t>
+  </si>
+  <si>
+    <t>1. दुर करणे</t>
+  </si>
+  <si>
+    <t>Palpable</t>
+  </si>
+  <si>
+    <t>1. So obvious that it can easily be seen or known</t>
+  </si>
+  <si>
+    <t>1. The tension in the room was palpable during the exam
+2.  A palpable effect
+3. Her joy was palpable.</t>
+  </si>
+  <si>
+    <t>1. उघड</t>
+  </si>
+  <si>
+    <t>Tangible</t>
+  </si>
+  <si>
+    <t>1. Real , able to perceive</t>
+  </si>
+  <si>
+    <t>1. We need tangible evidence if we're going to take legal action.
+2. Other tangible benefits include an increase in salary and shorter working hours.</t>
+  </si>
+  <si>
+    <t>1. स्पष्ट व निश्चित</t>
+  </si>
+  <si>
+    <t>Corporeal</t>
+  </si>
+  <si>
+    <t>1. शारीरिक
+2. आधिभौतिक</t>
+  </si>
+  <si>
+    <t>1. He was frank about his corporeal appetites
+2. in Scotland ‘goods’ includes all corporeal movables except money</t>
+  </si>
+  <si>
+    <t>1. Physical and not spiritual, consisting of material objects</t>
+  </si>
+  <si>
+    <t>Incontrovertible</t>
+  </si>
+  <si>
+    <t>1. Impossible to doubt because of being obviously true</t>
+  </si>
+  <si>
+    <t>1. Incontrovertible proof/evidence
+2. Her logic is utterly incontrovertible</t>
+  </si>
+  <si>
+    <t>1. निर्विवाद
+2. खंडन करता न येणारा</t>
+  </si>
+  <si>
+    <t>Perfidy</t>
+  </si>
+  <si>
+    <t>1. Behaviour that is not loyal</t>
+  </si>
+  <si>
+    <t>1. For his opponents, it was proof of his evil genius and perfidy
+2. History has many examples of perfidy and deceit.</t>
+  </si>
+  <si>
+    <t>1. विश्वासघातकीपणा</t>
+  </si>
+  <si>
+    <t>Profuse</t>
+  </si>
+  <si>
+    <t>1. large amounts</t>
+  </si>
+  <si>
+    <t>1. She was admitted to St Mary's Hospital with profuse bleeding.
+2. The company accepted blame and sent us profuse apologies</t>
+  </si>
+  <si>
+    <t>1. विपुल</t>
+  </si>
+  <si>
+    <t>1. Willing or ready to fight</t>
+  </si>
+  <si>
+    <t>Pugnacious, Pugnacity</t>
+  </si>
+  <si>
+    <t>1. His pugnacity and controversial business dealings had made him unpopular
+2. I found him pugnacious and arrogant</t>
+  </si>
+  <si>
+    <t>Belligerent</t>
+  </si>
+  <si>
+    <t>1. Willing to fight or argue</t>
+  </si>
+  <si>
+    <t>1. A belligerent person
+2. A belligerent gesture
+3. Watch out! Lee's in a belligerent mood</t>
+  </si>
+  <si>
+    <t>Bellicose</t>
+  </si>
+  <si>
+    <t>1. Wishing to fight or start a war</t>
+  </si>
+  <si>
+    <t>1. The general made some bellicose statements about his country's military strength</t>
+  </si>
+  <si>
+    <t>Sanguine</t>
+  </si>
+  <si>
+    <t>1. They are less sanguine about the prospects for peace</t>
+  </si>
+  <si>
+    <t>1. आशावादी</t>
+  </si>
+  <si>
+    <t>1. Positive and hoping  for good things
+2. Red in color</t>
+  </si>
+  <si>
+    <t>Scant</t>
+  </si>
+  <si>
+    <t>1. Very little and not enough</t>
+  </si>
+  <si>
+    <t>1. He pays scant attention to the needs of his children.
+2. scant regard for the truth</t>
+  </si>
+  <si>
+    <t>1. तुटपुंजा</t>
+  </si>
+  <si>
+    <t>Exiguous</t>
+  </si>
+  <si>
+    <t>1. Very little in size or amunt</t>
+  </si>
+  <si>
+    <t>1. I got a teaching job at an exiguous rate of pay.
+2. my exiguous musical resources</t>
+  </si>
+  <si>
+    <t>1. अल्प</t>
+  </si>
+  <si>
+    <t>Paltry</t>
+  </si>
+  <si>
+    <t>1. Very small and little, of low quality</t>
+  </si>
+  <si>
+    <t>1. क्षुल्लक
+2. तुच्छ</t>
+  </si>
+  <si>
+    <t>1. Student grants these days are paltry.
+2. The research in this area has been paltry and weak
+3. She made some paltry excuse and left</t>
+  </si>
+  <si>
+    <t>Derisory</t>
+  </si>
+  <si>
+    <t>1. Very little</t>
+  </si>
+  <si>
+    <t>1. We were awarded a derisory sum</t>
+  </si>
+  <si>
+    <t>Trifle, Trifling</t>
+  </si>
+  <si>
+    <t>1. Unimportant or trivial</t>
+  </si>
+  <si>
+    <t>1. He is not a man to be trifled with
+2. A trifling sum</t>
+  </si>
+  <si>
+    <t>Skulduggery</t>
+  </si>
+  <si>
+    <t>1. Secret and dishonest behaviour</t>
+  </si>
+  <si>
+    <t>1. This provided the first opportunity for skulduggery.
+2. A firm that investigates commercial skulduggery</t>
+  </si>
+  <si>
+    <t>1. अप्रामाणिकपणाचा व्यवहार</t>
+  </si>
+  <si>
+    <t>Machination</t>
+  </si>
+  <si>
+    <t>1. A plot or scheme</t>
+  </si>
+  <si>
+    <t>1. She complained about the machinations political candidates employed to win</t>
+  </si>
+  <si>
+    <t>1. गुप्त कारस्थान</t>
+  </si>
+  <si>
+    <t>Stratagem</t>
+  </si>
+  <si>
+    <t>1. A carefully planned way of achieving or dealing with something</t>
+  </si>
+  <si>
+    <t>1. Barry devised several stratagems for escape</t>
+  </si>
+  <si>
+    <t>1. क्लृप्ती</t>
+  </si>
+  <si>
+    <t>Shenanigans</t>
+  </si>
+  <si>
+    <t>1. Secret or dishonest activity
+2. Silly behaviour</t>
+  </si>
+  <si>
+    <t>1. More business shenanigans were exposed in the newspapers today.
+2. He told stories of his childhood pranks and prep school shenanigans</t>
+  </si>
+  <si>
+    <t>1. अप्रामाणिकपणाचा व्यवहार
+2. लबाडी</t>
+  </si>
+  <si>
+    <t>Utilitarian</t>
+  </si>
+  <si>
+    <t>1. Designed to be useful rather than decorative</t>
+  </si>
+  <si>
+    <t>1. Like many factories, it's a very ugly utilitarian building</t>
+  </si>
+  <si>
+    <t>1. उपयोगप्रधान</t>
+  </si>
+  <si>
+    <t>1. I found him rather boorish and aggressive.
+2. The boorish behaviour of some tourists is embarrassing.</t>
+  </si>
+  <si>
+    <t>1. Rough and bad mannered, rude</t>
+  </si>
+  <si>
+    <t>1. उद्धट
+2. रानटी</t>
+  </si>
+  <si>
+    <t>Boor, Boorish</t>
+  </si>
+  <si>
+    <t>Coarse</t>
+  </si>
+  <si>
+    <t>1. Rough and not smoothe</t>
+  </si>
+  <si>
+    <t>1. coarse sand/breadcrumbs
+2. Linen is a coarse-grained fabric.
+3. coarse language</t>
+  </si>
+  <si>
+    <t>1. खडबडीत
+2. उद्धट</t>
+  </si>
+  <si>
+    <t>Churlish</t>
+  </si>
+  <si>
+    <t>1. Rude, unfriendly and unpleasant</t>
+  </si>
+  <si>
+    <t>1. They invited me to dinner and I thought it would be churlish to refuse</t>
+  </si>
+  <si>
+    <t>Brook</t>
+  </si>
+  <si>
+    <t>1. A small stream
+2. Tolerate or allow</t>
+  </si>
+  <si>
+    <t>1. Jenny would brook no criticism of Matthew
+2. A brook runs past the house.</t>
+  </si>
+  <si>
+    <t>1. झरा
+2. सहन करणे</t>
+  </si>
+  <si>
+    <t>Circumspect</t>
+  </si>
+  <si>
+    <t>1. Careful not to take risk</t>
+  </si>
+  <si>
+    <t>1. Officials were circumspect about saying what the talks had achieved.
+2. Because of the censors, audience dissatisfaction could be mentioned in only the most circumspect way.</t>
+  </si>
+  <si>
+    <t>1. सावध
+2. धोरणी</t>
+  </si>
+  <si>
+    <t>Comity</t>
+  </si>
+  <si>
+    <t>1. Polite or friendly behaviour</t>
+  </si>
+  <si>
+    <t>1. The sort of cross-party comity that characterized past administrations is entirely absent today.
+2. The comity seen at yesterday's meeting may not last long.</t>
+  </si>
+  <si>
+    <t>1. सलोखा
+2. सौजन्य</t>
+  </si>
+  <si>
+    <t>Deleterious</t>
+  </si>
+  <si>
+    <t>1. Harmful</t>
+  </si>
+  <si>
+    <t>1. These drugs have a proven deleterious effect on the nervous system</t>
+  </si>
+  <si>
+    <t>1. हानिकारक</t>
+  </si>
+  <si>
+    <t>Detrimental</t>
+  </si>
+  <si>
+    <t>1. Causing harm</t>
+  </si>
+  <si>
+    <t>1. These chemicals have a detrimental effect/impact on the environment.
+2. Their decision could be detrimental to the future of the company</t>
+  </si>
+  <si>
+    <t>Prejudicial</t>
+  </si>
+  <si>
+    <t>1. Harmful or influencing people unfairly</t>
+  </si>
+  <si>
+    <t>1. The judge decided that allowing the video as evidence would be prejudicial to the outcome of the trial
+2. The proposals were considered prejudicial to the city centre</t>
+  </si>
+  <si>
+    <t>1. पूर्वग्रहदूषित
+2. हानिकारक</t>
+  </si>
+  <si>
+    <t>Dichotomy</t>
+  </si>
+  <si>
+    <t>1. A difference between two opposite ideas</t>
+  </si>
+  <si>
+    <t>1. There is often a dichotomy between what politicians say and what they do.
+2.  rigid dichotomy between science and mysticism</t>
+  </si>
+  <si>
+    <t>1. द्विभाजन</t>
+  </si>
+  <si>
+    <t>Edify</t>
+  </si>
+  <si>
+    <t>1. To improve someones's mind</t>
+  </si>
+  <si>
+    <t>1. मानसिकदृष्टया सुधारणे</t>
+  </si>
+  <si>
+    <t>1. The experience was an enjoyable and edifying experience for most individuals.
+2. Rachel had edified their childhood with frequent readings from Belloc</t>
+  </si>
+  <si>
+    <t>Elicit</t>
+  </si>
+  <si>
+    <t>1. Evoke or draw out</t>
+  </si>
+  <si>
+    <t>1. I tried to elicit a smile from Joanna
+2. Have you managed to elicit a response from them yet?
+3. The questionnaire was intended to elicit information on eating habits</t>
+  </si>
+  <si>
+    <t>1. काढून घेणे</t>
+  </si>
+  <si>
+    <t>Erudite</t>
+  </si>
+  <si>
+    <t>1. Having or showing great knowledge</t>
+  </si>
+  <si>
+    <t>1. He's the author of an erudite book on Scottish history.
+2. She is a scholarly and erudite person.</t>
+  </si>
+  <si>
+    <t>1. विदवान
+2. पंडित</t>
+  </si>
+  <si>
+    <t>Fecund</t>
+  </si>
+  <si>
+    <t>1. Producing or capable of producing in abundance</t>
+  </si>
+  <si>
+    <t>1. अत्यंत सुपीक
+2. विपुल उत्पादन देणारा</t>
+  </si>
+  <si>
+    <t>1. A fecund imagination
+2. A lush and fecund garden</t>
+  </si>
+  <si>
+    <t>Felicitous</t>
+  </si>
+  <si>
+    <t>1. Well suited or chosen to the circumstances</t>
+  </si>
+  <si>
+    <t>1. He summed up Jack's achievements in one or two felicitous phrases
+2. The combination of domestic arrangements with professional ambitions was not a felicitous one</t>
+  </si>
+  <si>
+    <t>1. समर्पक
+2. अत्यंत योग्य (शब्द, विधान इत्यादी)</t>
+  </si>
+  <si>
+    <t>Forbear</t>
+  </si>
+  <si>
+    <t>1. Restrain an impulse to do something</t>
+  </si>
+  <si>
+    <t>1. His plan was such a success that even his original critics could scarcely forbear from congratulating him.
+2. The doctor said she was optimistic about the outcome of the operation but forbore to make any promises at this early stage.</t>
+  </si>
+  <si>
+    <t>1. न करणे
+2. मन आवरणे</t>
+  </si>
+  <si>
+    <t>Hodgepodge</t>
+  </si>
+  <si>
+    <t>1. A confused mixture of different things</t>
+  </si>
+  <si>
+    <t>1. New Age thinking seems to be a hodgepodge of old and new ideas.</t>
+  </si>
+  <si>
+    <t>1. मिश्रण</t>
+  </si>
+  <si>
+    <t>Irascible</t>
+  </si>
+  <si>
+    <t>1. Made angry easily</t>
+  </si>
+  <si>
+    <t>1. She's becoming more and more irascible as she grows older.</t>
+  </si>
+  <si>
+    <t>1. तापट</t>
+  </si>
+  <si>
+    <t>Mordant</t>
+  </si>
+  <si>
+    <t>1. Cruel and criticizing in a humorous way</t>
+  </si>
+  <si>
+    <t>1. mordant wit/humour
+2.  mordant remark</t>
+  </si>
+  <si>
+    <t>1. बोचक
+2. मर्मभेदक</t>
+  </si>
+  <si>
+    <t>Outstrip</t>
+  </si>
+  <si>
+    <t>1. Group sales were up 6% to $5.8 billion, outstripping Wall Street expectations of $5.47 billion
+2. Car dealers worry that demand will outstrip their supply.</t>
+  </si>
+  <si>
+    <t>1. To be more in amount than expected</t>
+  </si>
+  <si>
+    <t>1. वरचढ होणे</t>
+  </si>
+  <si>
+    <t>Precarious</t>
+  </si>
+  <si>
+    <t>1. Dangerous, uncertain</t>
+  </si>
+  <si>
+    <t>1. अनिश्चित
+2. धोक्याचा</t>
+  </si>
+  <si>
+    <t>1. The lorry was lodged in a very precarious way, with its front wheels hanging over the cliff.</t>
+  </si>
+  <si>
+    <t>Quirky</t>
+  </si>
+  <si>
+    <t>1. Having or characterized by peculiar or unexpected traits or aspects</t>
+  </si>
+  <si>
+    <t>1. He was tall and had a quirky, off-beat sense of humour</t>
+  </si>
+  <si>
+    <t>1. विशेष स्वभाव</t>
+  </si>
+  <si>
+    <t>Eccentric</t>
+  </si>
+  <si>
+    <t>1. Strange or unusual, sometimes in a humorous way</t>
+  </si>
+  <si>
+    <t>1. My mother is something of an eccentric
+2. Eccentric behaviour
+3. Eccentric clothes</t>
+  </si>
+  <si>
+    <t>1. विक्षिप्त
+2. विलक्षण</t>
+  </si>
+  <si>
+    <t>Repudiate</t>
+  </si>
+  <si>
+    <t>1. Refuse to accept</t>
+  </si>
+  <si>
+    <t>1. He repudiated the allegation/charge/claim that he had tried to deceive them.
+2. I utterly repudiate those remarks</t>
+  </si>
+  <si>
+    <t>1. खंडन करणे</t>
+  </si>
+  <si>
+    <t>Tact</t>
+  </si>
+  <si>
+    <t>1. A skill and sensitivity in dealing with others or with difficult issues</t>
+  </si>
+  <si>
+    <t>1. The inspector broke the news to me with tact and consideration
+2. He's never had much tact and people don't like his blunt manner</t>
+  </si>
+  <si>
+    <t>1. व्यवहारचातुर्य</t>
+  </si>
+  <si>
+    <t>Acumen</t>
+  </si>
+  <si>
+    <t>1. Ability to make good judgements and correct decisions</t>
+  </si>
+  <si>
+    <t>1. She hides a shrewd business acumen
+2. He is an astute man with sound business acumen</t>
+  </si>
+  <si>
+    <t>1. कुशाग्रबुद्धी</t>
+  </si>
+  <si>
+    <t>Antithesis</t>
+  </si>
+  <si>
+    <t>1. The exact opposite</t>
+  </si>
+  <si>
+    <t>1. She is slim and shy - the very antithesis of her sister.
+2. He is the exact antithesis of what I find attractive in men.</t>
+  </si>
+  <si>
+    <t>1. दुसरे टोक
+2. उलट</t>
+  </si>
+  <si>
+    <t>Ascribe</t>
+  </si>
+  <si>
+    <t>1. Believe or say that something is caused by something else
+2. Something is written/said/done by someone
+3. Something belong to someone</t>
+  </si>
+  <si>
+    <t>1. To what do you ascribe your phenomenal success?
+2. After years of research, scholars have finally ascribed this anonymous play to Christopher Marlowe
+3. People like to ascribe human feelings to animals</t>
+  </si>
+  <si>
+    <t>1. त्याच्यात कारण शोधणे
+2. त्यावर खापर फोडणे</t>
+  </si>
+  <si>
+    <t>Befuddle</t>
+  </si>
+  <si>
+    <t>1. Confused, unable to think clearly</t>
+  </si>
+  <si>
+    <t>1. Federer has a wide repertoire of clever shots that befuddle even the best of his opponents</t>
+  </si>
+  <si>
+    <t>Eschew</t>
+  </si>
+  <si>
+    <t>1. Deliberately avoid something</t>
+  </si>
+  <si>
+    <t>1. We won't have discussions with this group unless they eschew violence</t>
+  </si>
+  <si>
+    <t>1. दूर राहणे
+2. टाळणे</t>
+  </si>
+  <si>
+    <t>Abnegate</t>
+  </si>
+  <si>
+    <t>1. Renounce or reject</t>
+  </si>
+  <si>
+    <t>1. To abnegate responsibility/guilt
+2. However, for some years that committee has abnegated that responsibility</t>
+  </si>
+  <si>
+    <t>1. परित्याग करणे</t>
+  </si>
+  <si>
+    <t>Esoteric</t>
+  </si>
+  <si>
+    <t>1. Intended for or understood by only few people who have special knowledge</t>
+  </si>
+  <si>
+    <t>1. He has an esoteric collection of old toys and games.
+2. She has a somewhat esoteric taste in clothes
+3. Esoteric philosophical debates</t>
+  </si>
+  <si>
+    <t>Exculpate</t>
+  </si>
+  <si>
+    <t>1. The pilot of the aircraft will surely be exculpated when all the facts are known</t>
+  </si>
+  <si>
+    <t>1. दोषमुक्त करणे</t>
+  </si>
+  <si>
+    <t>1. To remove blame from someone</t>
+  </si>
+  <si>
+    <t>Expedite</t>
+  </si>
+  <si>
+    <t>1. To make something happen more quickly</t>
+  </si>
+  <si>
+    <t>1. Something needs to be done to expedite the process
+2. We’ve got to expedite this order because they need it by tomorrow</t>
+  </si>
+  <si>
+    <t>1. वेग आणणे</t>
+  </si>
+  <si>
+    <t>Fastidious</t>
+  </si>
+  <si>
+    <t>1. Having high standards and giving attention to details</t>
+  </si>
+  <si>
+    <t>1. He is very fastidious about how a suitcase should be packed.
+2. The restaurant offers elaborate food and fastidious service at high prices</t>
+  </si>
+  <si>
+    <t>1. चिकित्सक वृत्तीचा</t>
+  </si>
+  <si>
+    <t>Furtive</t>
+  </si>
+  <si>
+    <t>1. Done or acting secretly and quietly to avoid being noticed</t>
+  </si>
+  <si>
+    <t>1. They exchanged furtive gestures and words of encouragement.
+2. He made one or two furtive phone calls.
+3. There was something furtive about his behaviour and I immediately felt suspicious</t>
+  </si>
+  <si>
+    <t>1. रहस्यमय
+2. छुपी</t>
+  </si>
+  <si>
+    <t>Surreptitious</t>
+  </si>
+  <si>
+    <t>1. Done secretly, without anyone seeing or knowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. She seemed to be listening to what I was saying, but I couldn't help noticing her surreptitious glances at the clock
+</t>
+  </si>
+  <si>
+    <t>1. चोरुन (गुपचूप) केलेली</t>
+  </si>
+  <si>
+    <t>Clandestine</t>
+  </si>
+  <si>
+    <t>1. Planned or done in secret</t>
+  </si>
+  <si>
+    <t>1. The group held weekly clandestine meetings in a church.
+2. He has been having a clandestine affair with his secretary for three years.</t>
+  </si>
+  <si>
+    <t>1. गुप्तपणे केलेले</t>
+  </si>
+  <si>
+    <t>Indispensable</t>
+  </si>
+  <si>
+    <t>1. Absolutely necessary</t>
+  </si>
+  <si>
+    <t>1. We need to educate the public about the wonder and the indispensability of nature.
+2. The newspaper once had an aura of indispensability.
+3. He made himself indispensable to the parish priest</t>
+  </si>
+  <si>
+    <t>1. अपरिहार्य</t>
+  </si>
+  <si>
+    <t>Lament</t>
+  </si>
+  <si>
+    <t>1. To express sadness or feeling sorry about someone</t>
+  </si>
+  <si>
+    <t>1. The poem opens by lamenting (over) the death of a young man.
+2. My grandmother, as usual, lamented the decline in moral standards in today's society</t>
+  </si>
+  <si>
+    <t>1. शोक
+2. विलाप करणे</t>
+  </si>
+  <si>
+    <t>Myopic</t>
+  </si>
+  <si>
+    <t>1. Short-sighted
+2. Lacking foresight or intellectual insights</t>
+  </si>
+  <si>
+    <t>1. Their myopic refusal to act now will undoubtedly cause problems in the future
+2. The government still has a myopic attitude to public spending</t>
+  </si>
+  <si>
+    <t>1. सारासार विचार नसलेला</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7448,11 +9232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D551"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
-      <selection activeCell="C551" sqref="C551"/>
+    <sheetView tabSelected="1" topLeftCell="B683" workbookViewId="0">
+      <selection activeCell="C687" sqref="C687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13808,1374 +15592,3278 @@
     </row>
     <row r="454" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="B454" s="2" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C454" s="2" t="s">
+      <c r="D454" s="2" t="s">
         <v>1803</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="B455" s="2" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C455" s="2" t="s">
+      <c r="D455" s="2" t="s">
         <v>1807</v>
-      </c>
-      <c r="D455" s="2" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="B456" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C456" s="2" t="s">
+      <c r="D456" s="2" t="s">
         <v>1811</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="B457" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C457" s="2" t="s">
+      <c r="D457" s="2" t="s">
         <v>1815</v>
-      </c>
-      <c r="D457" s="2" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="B458" s="2" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C458" s="2" t="s">
+      <c r="D458" s="2" t="s">
         <v>1819</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="B459" s="2" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C459" s="2" t="s">
+      <c r="D459" s="2" t="s">
         <v>1823</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B460" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="C460" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D460" s="2" t="s">
         <v>1827</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="B461" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C461" s="2" t="s">
+      <c r="D461" s="2" t="s">
         <v>1831</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C462" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="B462" s="2" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C462" s="2" t="s">
+      <c r="D462" s="2" t="s">
         <v>1835</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="B463" s="2" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C463" s="2" t="s">
+      <c r="D463" s="2" t="s">
         <v>1839</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="B464" s="2" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C464" s="2" t="s">
+      <c r="D464" s="2" t="s">
         <v>1843</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="B465" s="2" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C465" s="2" t="s">
+      <c r="D465" s="2" t="s">
         <v>1847</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C466" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="B466" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C466" s="2" t="s">
+      <c r="D466" s="2" t="s">
         <v>1850</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>1853</v>
       </c>
-      <c r="B467" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C467" s="2" t="s">
+      <c r="D467" s="2" t="s">
         <v>1854</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C468" s="2" t="s">
+      <c r="D468" s="2" t="s">
         <v>1858</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C469" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="B469" s="2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C469" s="2" t="s">
+      <c r="D469" s="2" t="s">
         <v>1862</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>716</v>
       </c>
       <c r="C470" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>1866</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>716</v>
       </c>
       <c r="C471" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D471" s="2" t="s">
         <v>1869</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C472" s="2" t="s">
         <v>1871</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C472" s="2" t="s">
+      <c r="D472" s="2" t="s">
         <v>1872</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="B473" s="2" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C473" s="2" t="s">
+      <c r="D473" s="2" t="s">
         <v>1876</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C474" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="B474" s="2" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C474" s="2" t="s">
+      <c r="D474" s="2" t="s">
         <v>1880</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C475" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="B475" s="2" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C475" s="2" t="s">
+      <c r="D475" s="2" t="s">
         <v>1883</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C476" s="2" t="s">
         <v>1886</v>
       </c>
-      <c r="B476" s="2" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C476" s="2" t="s">
+      <c r="D476" s="2" t="s">
         <v>1887</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D477" s="2" t="s">
         <v>1890</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D478" s="2" t="s">
         <v>1894</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C479" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="B479" s="2" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C479" s="2" t="s">
+      <c r="D479" s="2" t="s">
         <v>1898</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="B480" s="2" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C480" s="2" t="s">
+      <c r="D480" s="2" t="s">
         <v>1902</v>
-      </c>
-      <c r="D480" s="2" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B481" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="C481" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="C481" s="2" t="s">
+      <c r="D481" s="2" t="s">
         <v>1907</v>
-      </c>
-      <c r="D481" s="2" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C482" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="B482" s="2" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C482" s="2" t="s">
+      <c r="D482" s="2" t="s">
         <v>1910</v>
-      </c>
-      <c r="D482" s="2" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C483" s="2" t="s">
         <v>1913</v>
       </c>
-      <c r="B483" s="2" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C483" s="2" t="s">
+      <c r="D483" s="2" t="s">
         <v>1914</v>
-      </c>
-      <c r="D483" s="2" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C484" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="B484" s="2" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C484" s="2" t="s">
+      <c r="D484" s="2" t="s">
         <v>1918</v>
-      </c>
-      <c r="D484" s="2" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C485" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="B485" s="2" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C485" s="2" t="s">
+      <c r="D485" s="2" t="s">
         <v>1921</v>
-      </c>
-      <c r="D485" s="2" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C486" s="2" t="s">
         <v>1924</v>
       </c>
-      <c r="B486" s="2" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C486" s="2" t="s">
+      <c r="D486" s="2" t="s">
         <v>1925</v>
-      </c>
-      <c r="D486" s="2" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C487" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="B487" s="2" t="s">
-        <v>1931</v>
-      </c>
-      <c r="C487" s="2" t="s">
+      <c r="D487" s="2" t="s">
         <v>1929</v>
-      </c>
-      <c r="D487" s="2" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="B488" s="2" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C488" s="2" t="s">
+      <c r="D488" s="2" t="s">
         <v>1933</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C489" s="2" t="s">
         <v>1936</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C489" s="2" t="s">
+      <c r="D489" s="2" t="s">
         <v>1937</v>
-      </c>
-      <c r="D489" s="2" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C490" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="B490" s="2" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C490" s="2" t="s">
+      <c r="D490" s="2" t="s">
         <v>1941</v>
-      </c>
-      <c r="D490" s="2" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C491" s="2" t="s">
         <v>1944</v>
       </c>
-      <c r="B491" s="2" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C491" s="2" t="s">
+      <c r="D491" s="2" t="s">
         <v>1945</v>
-      </c>
-      <c r="D491" s="2" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="B492" s="2" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C492" s="2" t="s">
+      <c r="D492" s="2" t="s">
         <v>1949</v>
-      </c>
-      <c r="D492" s="2" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C493" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="B493" s="2" t="s">
-        <v>1955</v>
-      </c>
-      <c r="C493" s="2" t="s">
+      <c r="D493" s="2" t="s">
         <v>1953</v>
-      </c>
-      <c r="D493" s="2" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="D494" s="2" t="s">
         <v>1958</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>1957</v>
-      </c>
-      <c r="D494" s="2" t="s">
-        <v>1959</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C495" s="2" t="s">
         <v>1960</v>
       </c>
-      <c r="B495" s="2" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C495" s="2" t="s">
+      <c r="D495" s="2" t="s">
         <v>1961</v>
-      </c>
-      <c r="D495" s="2" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="B496" s="2" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C496" s="2" t="s">
+      <c r="D496" s="2" t="s">
         <v>1965</v>
-      </c>
-      <c r="D496" s="2" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>1432</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="D498" s="2" t="s">
         <v>1973</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D498" s="2" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="B499" s="2" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C499" s="2" t="s">
+      <c r="D499" s="2" t="s">
         <v>1976</v>
-      </c>
-      <c r="D499" s="2" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>1979</v>
       </c>
-      <c r="B500" s="2" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C500" s="2" t="s">
+      <c r="D500" s="2" t="s">
         <v>1980</v>
-      </c>
-      <c r="D500" s="2" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="C501" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D501" s="2" t="s">
         <v>1984</v>
-      </c>
-      <c r="D501" s="2" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="B502" s="2" t="s">
-        <v>1989</v>
-      </c>
-      <c r="C502" s="2" t="s">
+      <c r="D502" s="2" t="s">
         <v>1987</v>
-      </c>
-      <c r="D502" s="2" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C503" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="B503" s="2" t="s">
-        <v>1993</v>
-      </c>
-      <c r="C503" s="2" t="s">
+      <c r="D503" s="2" t="s">
         <v>1991</v>
-      </c>
-      <c r="D503" s="2" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C504" s="2" t="s">
         <v>1994</v>
       </c>
-      <c r="B504" s="2" t="s">
-        <v>1997</v>
-      </c>
-      <c r="C504" s="2" t="s">
+      <c r="D504" s="2" t="s">
         <v>1995</v>
-      </c>
-      <c r="D504" s="2" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C505" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="B505" s="2" t="s">
-        <v>2001</v>
-      </c>
-      <c r="C505" s="2" t="s">
+      <c r="D505" s="2" t="s">
         <v>1999</v>
-      </c>
-      <c r="D505" s="2" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D506" s="2" t="s">
         <v>2002</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>2004</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>2005</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C507" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="B507" s="2" t="s">
-        <v>2009</v>
-      </c>
-      <c r="C507" s="2" t="s">
+      <c r="D507" s="2" t="s">
         <v>2007</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C508" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="D508" s="2" t="s">
         <v>2012</v>
-      </c>
-      <c r="C508" s="2" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="509" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C509" s="2" t="s">
         <v>2014</v>
       </c>
-      <c r="B509" s="2" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C509" s="2" t="s">
+      <c r="D509" s="2" t="s">
         <v>2015</v>
-      </c>
-      <c r="D509" s="2" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C510" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="D510" s="2" t="s">
         <v>2020</v>
-      </c>
-      <c r="C510" s="2" t="s">
-        <v>2019</v>
-      </c>
-      <c r="D510" s="2" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C511" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="B511" s="2" t="s">
-        <v>2025</v>
-      </c>
-      <c r="C511" s="2" t="s">
+      <c r="D511" s="2" t="s">
         <v>2023</v>
-      </c>
-      <c r="D511" s="2" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C512" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="B512" s="2" t="s">
-        <v>2029</v>
-      </c>
-      <c r="C512" s="2" t="s">
+      <c r="D512" s="2" t="s">
         <v>2027</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="513" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C513" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="B513" s="2" t="s">
-        <v>2033</v>
-      </c>
-      <c r="C513" s="2" t="s">
+      <c r="D513" s="2" t="s">
         <v>2031</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="514" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C514" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="B514" s="2" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C514" s="2" t="s">
+      <c r="D514" s="2" t="s">
         <v>2035</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C515" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="D515" s="2" t="s">
         <v>2040</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D515" s="2" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="516" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C516" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="D516" s="2" t="s">
         <v>2044</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>2043</v>
-      </c>
-      <c r="D516" s="2" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>999</v>
       </c>
       <c r="C517" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D517" s="2" t="s">
         <v>2047</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C518" s="2" t="s">
         <v>2049</v>
       </c>
-      <c r="B518" s="2" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C518" s="2" t="s">
+      <c r="D518" s="2" t="s">
         <v>2050</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C519" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="B519" s="2" t="s">
-        <v>2055</v>
-      </c>
-      <c r="C519" s="2" t="s">
+      <c r="D519" s="2" t="s">
         <v>2053</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="520" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D520" s="2" t="s">
         <v>2056</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>2059</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C521" s="2" t="s">
         <v>2060</v>
       </c>
-      <c r="B521" s="2" t="s">
-        <v>2063</v>
-      </c>
-      <c r="C521" s="2" t="s">
+      <c r="D521" s="2" t="s">
         <v>2061</v>
-      </c>
-      <c r="D521" s="2" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="522" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C522" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="B522" s="2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C522" s="2" t="s">
+      <c r="D522" s="2" t="s">
         <v>2065</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D523" s="2" t="s">
         <v>2068</v>
-      </c>
-      <c r="B523" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D523" s="2" t="s">
-        <v>2069</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C524" s="2" t="s">
         <v>2072</v>
       </c>
-      <c r="B524" s="2" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C524" s="2" t="s">
+      <c r="D524" s="2" t="s">
         <v>2073</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>2074</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C525" s="2" t="s">
         <v>2076</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="D525" s="2" t="s">
         <v>2078</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>2077</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="B526" s="2" t="s">
-        <v>2083</v>
-      </c>
-      <c r="C526" s="2" t="s">
+      <c r="D526" s="2" t="s">
         <v>2081</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>2082</v>
       </c>
     </row>
     <row r="527" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C527" s="2" t="s">
         <v>2084</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>2087</v>
-      </c>
-      <c r="C527" s="2" t="s">
+      <c r="D527" s="2" t="s">
         <v>2085</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>2086</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C528" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C528" s="2" t="s">
+      <c r="D528" s="2" t="s">
         <v>2089</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>2090</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C529" s="2" t="s">
         <v>2092</v>
       </c>
-      <c r="B529" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C529" s="2" t="s">
+      <c r="D529" s="2" t="s">
         <v>2093</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>1050</v>
       </c>
       <c r="C530" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D530" s="2" t="s">
         <v>2097</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B531" s="2" t="s">
         <v>2099</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="C531" s="2" t="s">
         <v>2100</v>
       </c>
-      <c r="C531" s="2" t="s">
+      <c r="D531" s="2" t="s">
         <v>2101</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>2102</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>2103</v>
       </c>
-      <c r="B532" s="2" t="s">
-        <v>2106</v>
-      </c>
-      <c r="C532" s="2" t="s">
+      <c r="D532" s="2" t="s">
         <v>2104</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>2107</v>
       </c>
-      <c r="B533" s="2" t="s">
-        <v>2110</v>
-      </c>
-      <c r="C533" s="2" t="s">
+      <c r="D533" s="2" t="s">
         <v>2108</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C534" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="B534" s="2" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C534" s="2" t="s">
+      <c r="D534" s="2" t="s">
         <v>2112</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D535" s="2" t="s">
         <v>2115</v>
-      </c>
-      <c r="B535" s="2" t="s">
-        <v>2117</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>2118</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>2116</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>2119</v>
       </c>
-      <c r="B536" s="2" t="s">
-        <v>2122</v>
-      </c>
-      <c r="C536" s="2" t="s">
+      <c r="D536" s="2" t="s">
         <v>2120</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>2121</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>2123</v>
       </c>
-      <c r="B537" s="2" t="s">
-        <v>2126</v>
-      </c>
-      <c r="C537" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>2124</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="B538" s="2" t="s">
-        <v>2130</v>
-      </c>
-      <c r="C538" s="2" t="s">
+      <c r="D538" s="2" t="s">
         <v>2128</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="B539" s="2" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C539" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>2132</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B540" s="2" t="s">
         <v>2135</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="C540" s="2" t="s">
         <v>2136</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="D540" s="2" t="s">
         <v>2137</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D541" s="2" t="s">
         <v>2139</v>
-      </c>
-      <c r="B541" s="2" t="s">
-        <v>2142</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>2141</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C542" s="2" t="s">
         <v>2143</v>
       </c>
-      <c r="B542" s="2" t="s">
-        <v>2146</v>
-      </c>
-      <c r="C542" s="2" t="s">
+      <c r="D542" s="2" t="s">
         <v>2144</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>2147</v>
       </c>
-      <c r="B543" s="2" t="s">
-        <v>2150</v>
-      </c>
-      <c r="C543" s="2" t="s">
+      <c r="D543" s="2" t="s">
         <v>2148</v>
-      </c>
-      <c r="D543" s="2" t="s">
-        <v>2149</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C544" s="2" t="s">
         <v>2151</v>
       </c>
-      <c r="B544" s="2" t="s">
-        <v>2154</v>
-      </c>
-      <c r="C544" s="2" t="s">
+      <c r="D544" s="2" t="s">
         <v>2152</v>
-      </c>
-      <c r="D544" s="2" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>2155</v>
       </c>
-      <c r="B545" s="2" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C545" s="2" t="s">
+      <c r="D545" s="2" t="s">
         <v>2156</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="546" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>2159</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="D546" s="2" t="s">
         <v>2161</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>2160</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>2163</v>
       </c>
-      <c r="B547" s="2" t="s">
-        <v>2166</v>
-      </c>
-      <c r="C547" s="2" t="s">
+      <c r="D547" s="2" t="s">
         <v>2164</v>
-      </c>
-      <c r="D547" s="2" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D548" s="2" t="s">
         <v>2167</v>
-      </c>
-      <c r="B548" s="2" t="s">
-        <v>2169</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>2156</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C549" s="2" t="s">
         <v>2170</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="D549" s="2" t="s">
         <v>2172</v>
-      </c>
-      <c r="C549" s="2" t="s">
-        <v>2171</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>2173</v>
       </c>
     </row>
     <row r="550" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C550" s="2" t="s">
         <v>2174</v>
       </c>
-      <c r="B550" s="2" t="s">
-        <v>2177</v>
-      </c>
-      <c r="C550" s="2" t="s">
+      <c r="D550" s="2" t="s">
         <v>2175</v>
-      </c>
-      <c r="D550" s="2" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="2" t="s">
         <v>2181</v>
       </c>
-      <c r="B551" s="2" t="s">
-        <v>2180</v>
-      </c>
-      <c r="C551" s="2" t="s">
-        <v>2178</v>
-      </c>
-      <c r="D551" s="2" t="s">
-        <v>2179</v>
+      <c r="B552" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="2" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="2" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D577" s="2" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="2" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="2" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="2" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="2" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="2" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="2" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="2" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="2" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="2" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="2" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A640" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A641" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A643" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A648" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A654" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A655" s="2" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A656" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A657" s="2" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A658" s="2" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A661" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A664" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="2" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="2" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A669" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A670" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A673" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A676" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A679" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A680" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A681" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A682" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A685" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A687" s="2" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>2711</v>
       </c>
     </row>
   </sheetData>
